--- a/docs/assets/disciplinas/LOB1202.xlsx
+++ b/docs/assets/disciplinas/LOB1202.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -142,10 +142,6 @@
   </si>
   <si>
     <t xml:space="preserve">LOB1206 -  Solos I  (Requisito fraco)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOB1207 -  Poluição Ambiental I  (Requisito fraco)
 </t>
   </si>
   <si>
@@ -506,7 +502,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -759,14 +755,6 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="30" customHeight="1">
-      <c r="B26" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/assets/disciplinas/LOB1202.xlsx
+++ b/docs/assets/disciplinas/LOB1202.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="39">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Definição de projeto, ciclo de vida de projetos, processos de gerenciamento de projetos, sustentabilidade, estudo de caso</t>
+    <t>7926291 - Célia Regina Tomachuk dos Santos Catuogno</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -82,21 +82,18 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>7926291 - Célia Regina Tomachuk dos Santos Catuogno</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
+    <t>Semestral</t>
+  </si>
+  <si>
     <t>Short syllabus:</t>
   </si>
   <si>
     <t>Programa:</t>
   </si>
   <si>
-    <t>Definição de projeto e seus principais atributos e características; conceitos do PMBoK (Project managment body of knowledge). Planejamento estratégico. Desenvolvimento Sustentável: O que é desenvolvimento sustentável? Convênios, tratados e políticas de alcance internacional realizado em torno do desenvolvimento sustentável. Os desafios do desenvolvimento sustentável. Processos e metodologia do gerenciamento de projetos ambientais. Ferramentas de planejamento, monitoramento e controle. Estudo dos riscos e problemas comuns na gestão de projetos ambientais. Análise de casos reais envolvendo seleção, administração e desenvolvimento de projetos aplicados à gestão ambiental</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -109,33 +106,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Avaliação composta por 2 (duas) provas e um projetoPara os alunos que perderem uma das provas será oferecida uma substitutiva no final do semestre, que incluirá toda a matéria da disciplina.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Nota final = (nota prova 1 + nota da prova 2 + nota do projeto)/3.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Prova única com todo o conteúdo da disciplina, sendo que a nota [(nota final do semestre + nota recuperação)/2] deverá ser igual ou superior a 5,0 (cinco).</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>Bibliografia básica:
-VALLE, A.B. (Org.), Fundamentos do gerenciamento de projetos, 3° edição, Editora FGV, 2008
-MENEZES, L.C.M., Gestão de projetos, 2° edição, Editora Atlas, 2009
-KAHN, M., Gerenciamento de projetos ambientais, E-papers Serviços Editoriais, 2003
-VARGAS, R., Manual prático de projeto, 3° edição, Editora Brasport, 2007
-Bibliografia complementar:
-TORRES, C., Lélis, J.C., Garantia de sucesso em gestão de projetos, Ed. Brasport, 2008
-ROCHA, J.S.M., Manual de projetos ambientais, Imprensa Universitária, 1997
-Project Management Institute. PMBok, 2013</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -502,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -633,61 +619,64 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>29</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
@@ -712,7 +701,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
+    <row r="21" spans="1:3" ht="120" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>34</v>
       </c>
@@ -723,36 +712,25 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="2" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="30" customHeight="1">
-      <c r="B25" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOB1202.xlsx
+++ b/docs/assets/disciplinas/LOB1202.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,30 +70,33 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Definição de projeto, ciclo de vida de projetos, processos de gerenciamento de projetos, sustentabilidade, estudo de caso</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Project definition. Life cycle of projects. Projectos management processes. Sustainable development. Case studies</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>7926291 - Célia Regina Tomachuk dos Santos Catuogno</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Project definition. Life cycle of projects. Projectos management processes. Sustainable development. Case studies</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
-  </si>
-  <si>
     <t>Short syllabus:</t>
   </si>
   <si>
     <t>Programa:</t>
   </si>
   <si>
+    <t>Definição de projeto e seus principais atributos e características; conceitos do PMBoK (Project managment body of knowledge). Planejamento estratégico. Desenvolvimento Sustentável: O que é desenvolvimento sustentável? Convênios, tratados e políticas de alcance internacional realizado em torno do desenvolvimento sustentável. Os desafios do desenvolvimento sustentável. Processos e metodologia do gerenciamento de projetos ambientais. Ferramentas de planejamento, monitoramento e controle. Estudo dos riscos e problemas comuns na gestão de projetos ambientais. Análise de casos reais envolvendo seleção, administração e desenvolvimento de projetos aplicados à gestão ambiental</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -106,22 +109,33 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Avaliação composta por 2 (duas) provas e um projetoPara os alunos que perderem uma das provas será oferecida uma substitutiva no final do semestre, que incluirá toda a matéria da disciplina.</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Avaliação composta por 2 (duas) provas e um projetoPara os alunos que perderem uma das provas será oferecida uma substitutiva no final do semestre, que incluirá toda a matéria da disciplina.</t>
+    <t>Nota final = (nota prova 1 + nota da prova 2 + nota do projeto)/3.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Nota final = (nota prova 1 + nota da prova 2 + nota do projeto)/3.</t>
+    <t>Prova única com todo o conteúdo da disciplina, sendo que a nota [(nota final do semestre + nota recuperação)/2] deverá ser igual ou superior a 5,0 (cinco).</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Prova única com todo o conteúdo da disciplina, sendo que a nota [(nota final do semestre + nota recuperação)/2] deverá ser igual ou superior a 5,0 (cinco).</t>
+    <t>Bibliografia básica:
+VALLE, A.B. (Org.), Fundamentos do gerenciamento de projetos, 3° edição, Editora FGV, 2008
+MENEZES, L.C.M., Gestão de projetos, 2° edição, Editora Atlas, 2009
+KAHN, M., Gerenciamento de projetos ambientais, E-papers Serviços Editoriais, 2003
+VARGAS, R., Manual prático de projeto, 3° edição, Editora Brasport, 2007
+Bibliografia complementar:
+TORRES, C., Lélis, J.C., Garantia de sucesso em gestão de projetos, Ed. Brasport, 2008
+ROCHA, J.S.M., Manual de projetos ambientais, Imprensa Universitária, 1997
+Project Management Institute. PMBok, 2013</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -488,13 +502,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -619,64 +633,61 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="120" customHeight="1">
+      <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="C17" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
@@ -701,7 +712,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>34</v>
       </c>
@@ -712,25 +723,36 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" customHeight="1">
+      <c r="B25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
